--- a/KütüphaneVTŞeması.xlsx
+++ b/KütüphaneVTŞeması.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>Sütun Adı</t>
   </si>
@@ -39,30 +39,12 @@
     <t>Açıklama</t>
   </si>
   <si>
-    <t>Kitap No</t>
-  </si>
-  <si>
     <t>ISBN</t>
   </si>
   <si>
-    <t>Eser Adı</t>
-  </si>
-  <si>
-    <t>Basım Yılı</t>
-  </si>
-  <si>
-    <t>Mevcut Durumu</t>
-  </si>
-  <si>
     <t>Dil</t>
   </si>
   <si>
-    <t>Kopya Sayısı</t>
-  </si>
-  <si>
-    <t>Sayfa Sayısı</t>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
@@ -105,15 +87,9 @@
     <t>Kitabın kaç kopyası olduğu bilgisi</t>
   </si>
   <si>
-    <t>Kitabın kaç sayfa olduğu bilgisi</t>
-  </si>
-  <si>
     <t>Kütüphanede bulunup bulunmadığı bilgisi</t>
   </si>
   <si>
-    <t>Hangi yılda basıldığı bilgisi</t>
-  </si>
-  <si>
     <t>Eser adı bilgisi</t>
   </si>
   <si>
@@ -126,67 +102,91 @@
     <t>A.I</t>
   </si>
   <si>
-    <t>yaNo</t>
-  </si>
-  <si>
-    <t>yaAdı</t>
-  </si>
-  <si>
-    <t>yaDY</t>
-  </si>
-  <si>
     <t>Yazar Numarası Bilgisi</t>
   </si>
   <si>
     <t>Yazar Adı Bilgisi</t>
   </si>
   <si>
-    <t>Yazarın Doğum Yılı Bilgisi</t>
-  </si>
-  <si>
     <t>İndexs</t>
   </si>
   <si>
-    <t>yeNo</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>yeKayTar</t>
-  </si>
-  <si>
     <t>TimeStamp</t>
   </si>
   <si>
     <t>Current Time Stamp</t>
   </si>
   <si>
-    <t>yeAdı</t>
-  </si>
-  <si>
     <t>Unique</t>
   </si>
   <si>
-    <t>yeURL</t>
-  </si>
-  <si>
-    <t>yeEposta</t>
-  </si>
-  <si>
-    <t>Yayın Evinin Eposta Adres Bilgisi</t>
-  </si>
-  <si>
-    <t>Yayın Evi Numarası Bilgisi</t>
-  </si>
-  <si>
-    <t>Yayın Evine Kayıt Tarihi Bilgisi</t>
-  </si>
-  <si>
-    <t>Yayın Evinin Adı Bilgisi</t>
-  </si>
-  <si>
-    <t>Yayın Evi İnternet Sitesi Bilgisi</t>
+    <t>KitapNo</t>
+  </si>
+  <si>
+    <t>EserAdı</t>
+  </si>
+  <si>
+    <t>MevcutDurumu</t>
+  </si>
+  <si>
+    <t>KopyaSayısı</t>
+  </si>
+  <si>
+    <t>KayıtTarih</t>
+  </si>
+  <si>
+    <t>Kayıt bilgisi</t>
+  </si>
+  <si>
+    <t>yazarKayıtNo</t>
+  </si>
+  <si>
+    <t>yazarKayıtTarih</t>
+  </si>
+  <si>
+    <t>yazarAdı</t>
+  </si>
+  <si>
+    <t>yazarSoyadı</t>
+  </si>
+  <si>
+    <t>yazarURL</t>
+  </si>
+  <si>
+    <t>Yazar Kayıt Bilgisi</t>
+  </si>
+  <si>
+    <t>Yazar Soyadı Bilgisi</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>yayıneviKayıtNo</t>
+  </si>
+  <si>
+    <t>yayıneviKayıtTarih</t>
+  </si>
+  <si>
+    <t>yayıneviAdı</t>
+  </si>
+  <si>
+    <t>Yayınevi Numarası Bilgisi</t>
+  </si>
+  <si>
+    <t>Yayınevi Kayıt Tarihi Bilgisi</t>
+  </si>
+  <si>
+    <t>Yayınevinin Adı Bilgisi</t>
+  </si>
+  <si>
+    <t>Yayınevi İnternet Sitesi Bilgisi</t>
+  </si>
+  <si>
+    <t>yayıneviURL</t>
   </si>
 </sst>
 </file>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -581,117 +581,106 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -701,14 +690,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -717,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -732,68 +722,94 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
+      <c r="A2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="2">
-        <v>100</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -803,14 +819,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -819,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -834,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -842,65 +859,65 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -911,23 +928,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
